--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>To-do list</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Implementera kod</t>
   </si>
   <si>
-    <t>Implemetation av funktionaliteten i CustomerViewn</t>
-  </si>
-  <si>
     <t>Code behind för att spara data</t>
   </si>
   <si>
@@ -225,6 +222,15 @@
   </si>
   <si>
     <t>Skapa vyn</t>
+  </si>
+  <si>
+    <t>Input validation</t>
+  </si>
+  <si>
+    <t>Saknar bara input validation</t>
+  </si>
+  <si>
+    <t>Göra knapp ej tryckbar om info saknas</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,7 @@
   <dimension ref="B1:E402"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1134,9 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -11630,7 +11638,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -13735,7 +13743,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -13779,7 +13787,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15815,7 +15823,7 @@
   <dimension ref="B1:E402"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15882,25 +15890,29 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -15909,7 +15921,9 @@
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Uppgift 1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,10 @@
     <t>Input validation</t>
   </si>
   <si>
-    <t>Saknar bara input validation</t>
+    <t>Göra knapp ej tryckbar om info saknas</t>
   </si>
   <si>
-    <t>Göra knapp ej tryckbar om info saknas</t>
+    <t>Behövs ej med input validation</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -15822,8 +15822,8 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15891,15 +15891,13 @@
     </row>
     <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
@@ -15912,7 +15910,9 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -15922,10 +15922,12 @@
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Uppgift 1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>To-do list</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Behövs ej med input validation</t>
+  </si>
+  <si>
+    <t>Vy saknar korrekt data binding behöver fixas så fort det finns en lista</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -13713,8 +13716,8 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13781,7 +13784,9 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -13793,7 +13798,7 @@
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -13801,14 +13806,16 @@
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28ceb99c9505782e/Dokument/Skola/Newton/2. OOP1/GoldStarr Trading/Projektplanering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62DD5963-4C96-4E73-AA7F-483286AB5E69}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9780A864-2E54-4677-8AAC-DA28FD031E32}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uppgift 1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>To-do list</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Carl Emil Lidbom</t>
+  </si>
+  <si>
+    <t>Lägg till ordrar när de skickats i orderlistan</t>
   </si>
 </sst>
 </file>
@@ -11601,8 +11604,8 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11689,9 +11692,15 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44147</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -13710,7 +13719,7 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28ceb99c9505782e/Dokument/Skola/Newton/2. OOP1/GoldStarr Trading/Projektplanering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9780A864-2E54-4677-8AAC-DA28FD031E32}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C44529D6-96E7-4EB7-B9A1-BC3EEBA297EC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>To-do list</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Lägg till ordrar när de skickats i orderlistan</t>
+  </si>
+  <si>
+    <t>Fixa exception vid sendorder</t>
   </si>
 </sst>
 </file>
@@ -11605,7 +11608,7 @@
   <dimension ref="B1:E402"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11704,9 +11707,15 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44147</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28ceb99c9505782e/Dokument/Skola/Newton/2. OOP1/GoldStarr Trading/Projektplanering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C44529D6-96E7-4EB7-B9A1-BC3EEBA297EC}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_E61D2A13858AE5BD6D844BFB302E7B03891876BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E7CFE88-F63D-4537-BDDE-63E87BFF949F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uppgift 1" sheetId="1" r:id="rId1"/>
@@ -11607,8 +11607,8 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -13728,7 +13728,7 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>

--- a/Projektplanering/To-do list.xlsx
+++ b/Projektplanering/To-do list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="766" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Uppgift 1" sheetId="1" r:id="rId1"/>
@@ -191,12 +191,6 @@
     <t>HANNY Frank</t>
   </si>
   <si>
-    <t>Implementation av streamWriter på all data</t>
-  </si>
-  <si>
-    <t>Implementation av streamReader på all data</t>
-  </si>
-  <si>
     <t>Implementation av kod i AddOrderContent_Click</t>
   </si>
   <si>
@@ -234,6 +228,12 @@
   </si>
   <si>
     <t>Vy saknar korrekt data binding behöver fixas så fort det finns en lista</t>
+  </si>
+  <si>
+    <t>Implementera spara collections till fil</t>
+  </si>
+  <si>
+    <t>Implementera läs collections från fil</t>
   </si>
 </sst>
 </file>
@@ -9504,7 +9504,7 @@
   <dimension ref="A1:E402"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9574,17 +9574,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -11612,7 +11616,7 @@
   <dimension ref="B1:E402"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -11679,17 +11683,21 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -13716,8 +13724,8 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13746,7 +13754,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -13788,33 +13796,39 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
@@ -15901,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
@@ -15911,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -15921,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
@@ -15929,11 +15943,11 @@
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -22148,7 +22162,7 @@
   </sheetPr>
   <dimension ref="B1:E402"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
